--- a/input_files/case_files/BTES_price_taker_solar_colocated.xlsx
+++ b/input_files/case_files/BTES_price_taker_solar_colocated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aliciawongel/Work/clab_borehole_th_storage/input_files/case_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/awongel/Projects/clab_borehole_th_storage/input_files/case_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BE9DF4-E831-D043-85DA-343BEC4F42B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE4CC6B-625E-BB41-AFAC-AC01F4706680}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34040" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_input_intermodel_one_node_" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="98">
   <si>
     <t>Note that demand has no decisions.</t>
   </si>
@@ -296,13 +296,7 @@
     <t>p_set</t>
   </si>
   <si>
-    <t>const_generator</t>
-  </si>
-  <si>
     <t>electricity_gen</t>
-  </si>
-  <si>
-    <t>electricity_cost_base_case.csv</t>
   </si>
   <si>
     <t>$/MWh</t>
@@ -1225,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U64"/>
+  <dimension ref="A1:U63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1507,7 +1501,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1515,7 +1509,7 @@
         <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1716,62 +1710,80 @@
         <v>30</v>
       </c>
       <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
         <v>87</v>
       </c>
-      <c r="D50" t="s">
-        <v>92</v>
+      <c r="H50" t="s">
+        <v>72</v>
       </c>
       <c r="J50" t="s">
-        <v>89</v>
-      </c>
-      <c r="K50" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>82</v>
+      </c>
+      <c r="C51" t="s">
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="E51" t="s">
+        <v>76</v>
       </c>
       <c r="H51" t="s">
         <v>72</v>
       </c>
+      <c r="I51" t="s">
+        <v>89</v>
+      </c>
       <c r="J51" t="s">
         <v>72</v>
       </c>
+      <c r="K51" t="s">
+        <v>88</v>
+      </c>
+      <c r="M51" t="s">
+        <v>72</v>
+      </c>
+      <c r="N51" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
         <v>74</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" t="s">
         <v>76</v>
       </c>
       <c r="H52" t="s">
         <v>72</v>
       </c>
       <c r="I52" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J52" t="s">
         <v>72</v>
       </c>
       <c r="K52" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="L52" t="b">
+        <v>1</v>
       </c>
       <c r="M52" t="s">
         <v>72</v>
@@ -1779,13 +1791,16 @@
       <c r="N52" t="s">
         <v>72</v>
       </c>
+      <c r="O52">
+        <v>1E-10</v>
+      </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C53" t="s">
         <v>74</v>
@@ -1793,29 +1808,26 @@
       <c r="D53" t="s">
         <v>76</v>
       </c>
+      <c r="E53" t="s">
+        <v>90</v>
+      </c>
       <c r="H53" t="s">
         <v>72</v>
       </c>
       <c r="I53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J53" t="s">
         <v>72</v>
       </c>
       <c r="K53" t="s">
-        <v>90</v>
-      </c>
-      <c r="L53" t="b">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="M53" t="s">
         <v>72</v>
       </c>
       <c r="N53" t="s">
         <v>72</v>
-      </c>
-      <c r="O53">
-        <v>1E-10</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.2">
@@ -1823,39 +1835,26 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
-      </c>
-      <c r="C54" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E54" t="s">
         <v>92</v>
       </c>
-      <c r="H54" t="s">
-        <v>72</v>
-      </c>
-      <c r="I54" t="s">
-        <v>91</v>
-      </c>
-      <c r="J54" t="s">
-        <v>72</v>
+      <c r="J54" s="6" t="s">
+        <v>94</v>
       </c>
       <c r="K54" t="s">
-        <v>90</v>
-      </c>
-      <c r="M54" t="s">
-        <v>72</v>
-      </c>
-      <c r="N54" t="s">
-        <v>72</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="Q54" s="5"/>
+      <c r="U54" s="5"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B55" t="s">
         <v>93</v>
@@ -1863,86 +1862,64 @@
       <c r="D55" t="s">
         <v>92</v>
       </c>
-      <c r="E55" t="s">
-        <v>94</v>
-      </c>
-      <c r="J55" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K55" t="s">
-        <v>90</v>
+      <c r="L55" t="b">
+        <v>1</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="U55" s="5"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>94</v>
-      </c>
-      <c r="L56" t="b">
+        <v>92</v>
+      </c>
+      <c r="G56">
         <v>1</v>
       </c>
-      <c r="Q56" s="5"/>
-      <c r="U56" s="5"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" t="s">
-        <v>10</v>
-      </c>
-      <c r="D57" t="s">
-        <v>94</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
+      <c r="A57" s="6"/>
+      <c r="I57" s="15"/>
+      <c r="K57" s="5"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="5"/>
+      <c r="P57" s="1"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A58" s="6"/>
-      <c r="I58" s="15"/>
-      <c r="K58" s="5"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="5"/>
-      <c r="P58" s="1"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="A58" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>18</v>
-      </c>
+      <c r="A62" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A63" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
       <c r="L63" s="7"/>
       <c r="M63" s="7"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>55</v>
-      </c>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
